--- a/gym_log_Q1_2024 - workout data.xlsx
+++ b/gym_log_Q1_2024 - workout data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dpdhl-my.sharepoint.com/personal/jan_miklosko_dhl_com/Documents/Desktop/Pracovní DHL/SuperUser/DATA/Gym_log_2024 temporary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janmi\Documents\VS Code\Gym_log_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="584" documentId="8_{9BE7484D-AE15-43C3-A35E-CA8213619547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A10F55E-3971-4150-85D4-1E7A03D15743}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3F3BE2-4B53-4276-8DE1-DF3C7D736356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6B4D77A0-3B2B-4DE3-BAB8-9DB7AEC2EDDD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6B4D77A0-3B2B-4DE3-BAB8-9DB7AEC2EDDD}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="129">
   <si>
     <t>Muscle group</t>
   </si>
@@ -486,9 +486,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 –⁠ 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -526,7 +526,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 –⁠ 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -632,7 +632,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 –⁠ 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -774,7 +774,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -782,25 +782,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE32C860-A414-4E17-A13D-0D87E605F720}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H635"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="G444" sqref="G444"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>126</v>
       </c>
@@ -826,7 +827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45336</v>
       </c>
@@ -849,7 +850,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45301</v>
       </c>
@@ -872,7 +873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45301</v>
       </c>
@@ -892,7 +893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45417</v>
       </c>
@@ -912,7 +913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45333</v>
       </c>
@@ -938,7 +939,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45308</v>
       </c>
@@ -958,7 +959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45355</v>
       </c>
@@ -981,7 +982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45339</v>
       </c>
@@ -995,7 +996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45399</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45303</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45338</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45338</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45363</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45363</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45382</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45382</v>
       </c>
@@ -1155,7 +1156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45440</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45400</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45428</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45434</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45341</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45375</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45305</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45385</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45391</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45381</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45387</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45310</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45412</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45414</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45399</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45312</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45411</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45411</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45343</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45343</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45308</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45323</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45401</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45401</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45307</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45329</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45387</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45371</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45318</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45326</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45369</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45333</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45336</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45323</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>45328</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>45328</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>45338</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45308</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>45338</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>45301</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>45341</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>45343</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>45327</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>45303</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>45310</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>45317</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>45310</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>45310</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>45310</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>45310</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>45371</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>45317</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>45369</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>45308</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>45308</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>45310</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>45310</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>45326</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>45307</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>45305</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>45305</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>45369</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>45384</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45329</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>45329</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>45333</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>45328</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>45308</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>45317</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45346</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>45384</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>45384</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>45439</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>45439</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>45439</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>45365</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>45365</v>
       </c>
@@ -2713,7 +2714,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>45326</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>45308</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>45431</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>45375</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>45385</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>45322</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>45338</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>45338</v>
       </c>
@@ -2867,7 +2868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45361</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45361</v>
       </c>
@@ -2913,7 +2914,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>45387</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>45435</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>45363</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>45355</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>45331</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>45333</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>45308</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>45369</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>45369</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>45411</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>45369</v>
       </c>
@@ -3115,7 +3116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>45384</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>45305</v>
       </c>
@@ -3158,7 +3159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>45305</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>45326</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>45333</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>45310</v>
       </c>
@@ -3238,7 +3239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>45326</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>45346</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>45310</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>45350</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>45435</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>45308</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>45353</v>
       </c>
@@ -3359,11 +3360,14 @@
       <c r="F128">
         <v>-68</v>
       </c>
+      <c r="G128" t="s">
+        <v>54</v>
+      </c>
       <c r="H128" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>45417</v>
       </c>
@@ -3377,7 +3381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>45382</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>45377</v>
       </c>
@@ -3417,7 +3421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>45396</v>
       </c>
@@ -3437,7 +3441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>45369</v>
       </c>
@@ -3457,7 +3461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>45369</v>
       </c>
@@ -3477,7 +3481,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>45377</v>
       </c>
@@ -3497,7 +3501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>45391</v>
       </c>
@@ -3517,7 +3521,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>45407</v>
       </c>
@@ -3534,7 +3538,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>45411</v>
       </c>
@@ -3551,7 +3555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>45373</v>
       </c>
@@ -3574,7 +3578,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>45379</v>
       </c>
@@ -3597,7 +3601,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>45414</v>
       </c>
@@ -3620,7 +3624,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>45371</v>
       </c>
@@ -3643,7 +3647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>45384</v>
       </c>
@@ -3660,7 +3664,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>45333</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>45369</v>
       </c>
@@ -3700,7 +3704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>45372</v>
       </c>
@@ -3720,7 +3724,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>45365</v>
       </c>
@@ -3740,7 +3744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>45377</v>
       </c>
@@ -3759,8 +3763,11 @@
       <c r="F148">
         <v>-54</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G148" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>45377</v>
       </c>
@@ -3779,8 +3786,11 @@
       <c r="F149">
         <v>-48</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G149" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>45372</v>
       </c>
@@ -3800,7 +3810,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>45372</v>
       </c>
@@ -3820,7 +3830,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>45381</v>
       </c>
@@ -3837,7 +3847,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>45403</v>
       </c>
@@ -3856,11 +3866,14 @@
       <c r="F153">
         <v>-48</v>
       </c>
+      <c r="G153" t="s">
+        <v>54</v>
+      </c>
       <c r="H153" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>45377</v>
       </c>
@@ -3880,7 +3893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>45377</v>
       </c>
@@ -3900,7 +3913,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>45326</v>
       </c>
@@ -3920,7 +3933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>45339</v>
       </c>
@@ -3940,7 +3953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>45331</v>
       </c>
@@ -3960,7 +3973,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>45339</v>
       </c>
@@ -3980,7 +3993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>45339</v>
       </c>
@@ -4000,7 +4013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>45391</v>
       </c>
@@ -4023,7 +4036,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>45375</v>
       </c>
@@ -4043,7 +4056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>45375</v>
       </c>
@@ -4063,7 +4076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>45384</v>
       </c>
@@ -4083,7 +4096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>45408</v>
       </c>
@@ -4106,7 +4119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>45431</v>
       </c>
@@ -4120,7 +4133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>45432</v>
       </c>
@@ -4134,7 +4147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>45336</v>
       </c>
@@ -4154,7 +4167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>45331</v>
       </c>
@@ -4174,7 +4187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>45384</v>
       </c>
@@ -4194,7 +4207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>45412</v>
       </c>
@@ -4217,7 +4230,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>45346</v>
       </c>
@@ -4237,7 +4250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>45351</v>
       </c>
@@ -4257,7 +4270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>45434</v>
       </c>
@@ -4271,7 +4284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>45435</v>
       </c>
@@ -4285,7 +4298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>45307</v>
       </c>
@@ -4305,7 +4318,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>45365</v>
       </c>
@@ -4325,7 +4338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>45417</v>
       </c>
@@ -4345,7 +4358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>45308</v>
       </c>
@@ -4365,7 +4378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>45400</v>
       </c>
@@ -4385,7 +4398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>45400</v>
       </c>
@@ -4405,7 +4418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>45415</v>
       </c>
@@ -4425,7 +4438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>45432</v>
       </c>
@@ -4448,7 +4461,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>45408</v>
       </c>
@@ -4471,7 +4484,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>45391</v>
       </c>
@@ -4491,7 +4504,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>45414</v>
       </c>
@@ -4517,7 +4530,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>45439</v>
       </c>
@@ -4531,7 +4544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>45351</v>
       </c>
@@ -4548,7 +4561,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>45397</v>
       </c>
@@ -4568,7 +4581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>45326</v>
       </c>
@@ -4588,7 +4601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>45361</v>
       </c>
@@ -4611,7 +4624,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>45372</v>
       </c>
@@ -4634,7 +4647,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>45387</v>
       </c>
@@ -4654,7 +4667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>45346</v>
       </c>
@@ -4677,7 +4690,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>45333</v>
       </c>
@@ -4697,7 +4710,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>45391</v>
       </c>
@@ -4717,7 +4730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>45391</v>
       </c>
@@ -4737,7 +4750,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>45385</v>
       </c>
@@ -4757,7 +4770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>45358</v>
       </c>
@@ -4771,7 +4784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>45351</v>
       </c>
@@ -4791,7 +4804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>45336</v>
       </c>
@@ -4811,7 +4824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>45338</v>
       </c>
@@ -4831,7 +4844,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>45391</v>
       </c>
@@ -4851,7 +4864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>45382</v>
       </c>
@@ -4877,7 +4890,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>45303</v>
       </c>
@@ -4897,7 +4910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>45303</v>
       </c>
@@ -4917,7 +4930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>45329</v>
       </c>
@@ -4937,7 +4950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>45329</v>
       </c>
@@ -4957,7 +4970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>45403</v>
       </c>
@@ -4971,7 +4984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>45385</v>
       </c>
@@ -4991,7 +5004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>45307</v>
       </c>
@@ -5011,7 +5024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>45403</v>
       </c>
@@ -5031,7 +5044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>45385</v>
       </c>
@@ -5051,7 +5064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>45301</v>
       </c>
@@ -5070,7 +5083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>45341</v>
       </c>
@@ -5090,7 +5103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>45307</v>
       </c>
@@ -5110,7 +5123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>45307</v>
       </c>
@@ -5130,7 +5143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>45329</v>
       </c>
@@ -5153,7 +5166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>45427</v>
       </c>
@@ -5173,7 +5186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>45341</v>
       </c>
@@ -5193,7 +5206,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>45387</v>
       </c>
@@ -5213,7 +5226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>45303</v>
       </c>
@@ -5232,7 +5245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>45351</v>
       </c>
@@ -5252,7 +5265,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>45305</v>
       </c>
@@ -5266,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>45306</v>
       </c>
@@ -5283,7 +5296,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>45318</v>
       </c>
@@ -5303,7 +5316,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>45318</v>
       </c>
@@ -5323,7 +5336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>45301</v>
       </c>
@@ -5343,7 +5356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>45329</v>
       </c>
@@ -5366,7 +5379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>45431</v>
       </c>
@@ -5386,7 +5399,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>45326</v>
       </c>
@@ -5406,7 +5419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>45311</v>
       </c>
@@ -5420,7 +5433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>45317</v>
       </c>
@@ -5434,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>45322</v>
       </c>
@@ -5454,7 +5467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>45329</v>
       </c>
@@ -5474,7 +5487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>45432</v>
       </c>
@@ -5494,7 +5507,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>45432</v>
       </c>
@@ -5514,7 +5527,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>45355</v>
       </c>
@@ -5534,7 +5547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>45324</v>
       </c>
@@ -5548,7 +5561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>45325</v>
       </c>
@@ -5562,7 +5575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>45341</v>
       </c>
@@ -5582,7 +5595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>45432</v>
       </c>
@@ -5602,7 +5615,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>45417</v>
       </c>
@@ -5622,7 +5635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>45361</v>
       </c>
@@ -5642,7 +5655,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>45417</v>
       </c>
@@ -5662,7 +5675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>45412</v>
       </c>
@@ -5682,7 +5695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>45329</v>
       </c>
@@ -5696,7 +5709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>45414</v>
       </c>
@@ -5716,7 +5729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>45338</v>
       </c>
@@ -5736,7 +5749,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>45334</v>
       </c>
@@ -5750,7 +5763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>45335</v>
       </c>
@@ -5764,7 +5777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>45372</v>
       </c>
@@ -5784,7 +5797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>45307</v>
       </c>
@@ -5804,7 +5817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>45307</v>
       </c>
@@ -5824,7 +5837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>45308</v>
       </c>
@@ -5847,7 +5860,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>45417</v>
       </c>
@@ -5867,7 +5880,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>45323</v>
       </c>
@@ -5887,7 +5900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>45361</v>
       </c>
@@ -5907,7 +5920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>45361</v>
       </c>
@@ -5927,7 +5940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>45361</v>
       </c>
@@ -5947,7 +5960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>45381</v>
       </c>
@@ -5967,7 +5980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>45337</v>
       </c>
@@ -5981,7 +5994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>45338</v>
       </c>
@@ -5995,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>45341</v>
       </c>
@@ -6015,7 +6028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>45363</v>
       </c>
@@ -6035,7 +6048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>45382</v>
       </c>
@@ -6055,7 +6068,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>45382</v>
       </c>
@@ -6075,7 +6088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>45382</v>
       </c>
@@ -6095,7 +6108,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>45399</v>
       </c>
@@ -6115,7 +6128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>45399</v>
       </c>
@@ -6135,7 +6148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>45303</v>
       </c>
@@ -6155,7 +6168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>45382</v>
       </c>
@@ -6175,7 +6188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>45313</v>
       </c>
@@ -6198,7 +6211,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>45339</v>
       </c>
@@ -6212,7 +6225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>45341</v>
       </c>
@@ -6226,7 +6239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>45322</v>
       </c>
@@ -6249,7 +6262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>45313</v>
       </c>
@@ -6275,7 +6288,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>45333</v>
       </c>
@@ -6295,7 +6308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>45333</v>
       </c>
@@ -6315,7 +6328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>45365</v>
       </c>
@@ -6335,7 +6348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>45365</v>
       </c>
@@ -6355,7 +6368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>45365</v>
       </c>
@@ -6375,7 +6388,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>45375</v>
       </c>
@@ -6395,7 +6408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>45394</v>
       </c>
@@ -6418,7 +6431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>45373</v>
       </c>
@@ -6438,7 +6451,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>45373</v>
       </c>
@@ -6458,7 +6471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>45343</v>
       </c>
@@ -6475,7 +6488,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>45346</v>
       </c>
@@ -6489,7 +6502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>45351</v>
       </c>
@@ -6503,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>45353</v>
       </c>
@@ -6517,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>45313</v>
       </c>
@@ -6540,7 +6553,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>45308</v>
       </c>
@@ -6563,7 +6576,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>45317</v>
       </c>
@@ -6583,7 +6596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>45317</v>
       </c>
@@ -6603,7 +6616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>45326</v>
       </c>
@@ -6623,7 +6636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>45326</v>
       </c>
@@ -6643,7 +6656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>45397</v>
       </c>
@@ -6663,7 +6676,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>45397</v>
       </c>
@@ -6683,7 +6696,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>45371</v>
       </c>
@@ -6706,7 +6719,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>45432</v>
       </c>
@@ -6726,7 +6739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>45331</v>
       </c>
@@ -6746,7 +6759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>45331</v>
       </c>
@@ -6766,7 +6779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>45353</v>
       </c>
@@ -6780,7 +6793,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>45354</v>
       </c>
@@ -6794,7 +6807,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>45346</v>
       </c>
@@ -6814,7 +6827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>45333</v>
       </c>
@@ -6837,7 +6850,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>45417</v>
       </c>
@@ -6857,7 +6870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>45381</v>
       </c>
@@ -6877,7 +6890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>45381</v>
       </c>
@@ -6897,7 +6910,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>45394</v>
       </c>
@@ -6917,7 +6930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>45358</v>
       </c>
@@ -6931,7 +6944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>45333</v>
       </c>
@@ -6954,7 +6967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>45339</v>
       </c>
@@ -6974,7 +6987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>45339</v>
       </c>
@@ -6994,7 +7007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>45394</v>
       </c>
@@ -7014,7 +7027,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>45394</v>
       </c>
@@ -7034,7 +7047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>45394</v>
       </c>
@@ -7054,7 +7067,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>45394</v>
       </c>
@@ -7074,7 +7087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>45372</v>
       </c>
@@ -7094,7 +7107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>45350</v>
       </c>
@@ -7114,7 +7127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>45372</v>
       </c>
@@ -7137,7 +7150,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>45361</v>
       </c>
@@ -7151,7 +7164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>45363</v>
       </c>
@@ -7165,7 +7178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>45407</v>
       </c>
@@ -7185,7 +7198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>45407</v>
       </c>
@@ -7205,7 +7218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>45365</v>
       </c>
@@ -7225,7 +7238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>45365</v>
       </c>
@@ -7245,7 +7258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>45373</v>
       </c>
@@ -7268,7 +7281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>45351</v>
       </c>
@@ -7291,7 +7304,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>45428</v>
       </c>
@@ -7311,7 +7324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>45363</v>
       </c>
@@ -7325,7 +7338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>45363</v>
       </c>
@@ -7339,7 +7352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>45351</v>
       </c>
@@ -7359,7 +7372,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>45361</v>
       </c>
@@ -7379,7 +7392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>45361</v>
       </c>
@@ -7399,7 +7412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>45372</v>
       </c>
@@ -7419,7 +7432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>45387</v>
       </c>
@@ -7439,7 +7452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>45387</v>
       </c>
@@ -7459,7 +7472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>45435</v>
       </c>
@@ -7479,7 +7492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>45428</v>
       </c>
@@ -7499,7 +7512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>45434</v>
       </c>
@@ -7519,7 +7532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>45434</v>
       </c>
@@ -7539,7 +7552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>45329</v>
       </c>
@@ -7559,7 +7572,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>45375</v>
       </c>
@@ -7582,7 +7595,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>45394</v>
       </c>
@@ -7602,7 +7615,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>45365</v>
       </c>
@@ -7616,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>45384</v>
       </c>
@@ -7636,7 +7649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>45384</v>
       </c>
@@ -7656,7 +7669,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>45396</v>
       </c>
@@ -7676,7 +7689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>45396</v>
       </c>
@@ -7696,7 +7709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>45313</v>
       </c>
@@ -7716,7 +7729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>45313</v>
       </c>
@@ -7736,7 +7749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>45317</v>
       </c>
@@ -7756,7 +7769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>45328</v>
       </c>
@@ -7776,7 +7789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>45307</v>
       </c>
@@ -7796,7 +7809,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>45307</v>
       </c>
@@ -7816,7 +7829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>45365</v>
       </c>
@@ -7830,7 +7843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>45366</v>
       </c>
@@ -7844,7 +7857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>45318</v>
       </c>
@@ -7870,7 +7883,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>45435</v>
       </c>
@@ -7890,7 +7903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>45323</v>
       </c>
@@ -7910,7 +7923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>45318</v>
       </c>
@@ -7933,7 +7946,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>45318</v>
       </c>
@@ -7959,7 +7972,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>45396</v>
       </c>
@@ -7979,7 +7992,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>45333</v>
       </c>
@@ -8005,7 +8018,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>45434</v>
       </c>
@@ -8025,7 +8038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>45367</v>
       </c>
@@ -8039,7 +8052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>45368</v>
       </c>
@@ -8053,7 +8066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>45301</v>
       </c>
@@ -8076,7 +8089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>45381</v>
       </c>
@@ -8096,7 +8109,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>45307</v>
       </c>
@@ -8119,7 +8132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>45307</v>
       </c>
@@ -8142,7 +8155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>45326</v>
       </c>
@@ -8165,7 +8178,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>45326</v>
       </c>
@@ -8188,7 +8201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>45369</v>
       </c>
@@ -8202,7 +8215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>45370</v>
       </c>
@@ -8216,7 +8229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>45365</v>
       </c>
@@ -8236,7 +8249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>45329</v>
       </c>
@@ -8256,7 +8269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>45329</v>
       </c>
@@ -8276,7 +8289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>45329</v>
       </c>
@@ -8296,7 +8309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>45382</v>
       </c>
@@ -8316,7 +8329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>45382</v>
       </c>
@@ -8336,7 +8349,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>45382</v>
       </c>
@@ -8356,7 +8369,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>45382</v>
       </c>
@@ -8376,7 +8389,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>45399</v>
       </c>
@@ -8396,7 +8409,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>45399</v>
       </c>
@@ -8416,7 +8429,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>45399</v>
       </c>
@@ -8436,7 +8449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>45399</v>
       </c>
@@ -8456,7 +8469,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>45303</v>
       </c>
@@ -8476,7 +8489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>45301</v>
       </c>
@@ -8499,7 +8512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>45305</v>
       </c>
@@ -8519,7 +8532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>45336</v>
       </c>
@@ -8539,7 +8552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>45338</v>
       </c>
@@ -8559,7 +8572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>45338</v>
       </c>
@@ -8579,7 +8592,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>45339</v>
       </c>
@@ -8599,7 +8612,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>45305</v>
       </c>
@@ -8619,7 +8632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>45305</v>
       </c>
@@ -8642,7 +8655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>45305</v>
       </c>
@@ -8665,7 +8678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>45323</v>
       </c>
@@ -8685,7 +8698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>45338</v>
       </c>
@@ -8705,7 +8718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>45339</v>
       </c>
@@ -8724,8 +8737,11 @@
       <c r="F401">
         <v>-61</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G401" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>45371</v>
       </c>
@@ -8739,7 +8755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>45372</v>
       </c>
@@ -8753,7 +8769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>45385</v>
       </c>
@@ -8773,7 +8789,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>45326</v>
       </c>
@@ -8796,7 +8812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>45343</v>
       </c>
@@ -8822,7 +8838,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>45355</v>
       </c>
@@ -8848,7 +8864,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>45371</v>
       </c>
@@ -8874,7 +8890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>45341</v>
       </c>
@@ -8894,7 +8910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>45373</v>
       </c>
@@ -8920,7 +8936,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>45375</v>
       </c>
@@ -8946,7 +8962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>45379</v>
       </c>
@@ -8972,7 +8988,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>45385</v>
       </c>
@@ -8998,7 +9014,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>45391</v>
       </c>
@@ -9024,7 +9040,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>45408</v>
       </c>
@@ -9050,7 +9066,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>45339</v>
       </c>
@@ -9070,7 +9086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>45341</v>
       </c>
@@ -9090,7 +9106,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>45339</v>
       </c>
@@ -9109,8 +9125,11 @@
       <c r="F418">
         <v>-54</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G418" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>45339</v>
       </c>
@@ -9129,8 +9148,11 @@
       <c r="F419">
         <v>-48</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G419" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>45346</v>
       </c>
@@ -9149,8 +9171,11 @@
       <c r="F420">
         <v>-61</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G420" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>45351</v>
       </c>
@@ -9169,8 +9194,11 @@
       <c r="F421">
         <v>-61</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G421" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>45361</v>
       </c>
@@ -9189,8 +9217,11 @@
       <c r="F422">
         <v>-61</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G422" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>45372</v>
       </c>
@@ -9209,8 +9240,11 @@
       <c r="F423">
         <v>-54</v>
       </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G423" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>45372</v>
       </c>
@@ -9229,8 +9263,11 @@
       <c r="F424">
         <v>-48</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G424" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>45375</v>
       </c>
@@ -9249,8 +9286,11 @@
       <c r="F425">
         <v>-54</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G425" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>45373</v>
       </c>
@@ -9264,7 +9304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>45374</v>
       </c>
@@ -9278,7 +9318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>45305</v>
       </c>
@@ -9301,7 +9341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>45305</v>
       </c>
@@ -9321,7 +9361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>45308</v>
       </c>
@@ -9344,7 +9384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>45308</v>
       </c>
@@ -9364,7 +9404,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>45331</v>
       </c>
@@ -9384,7 +9424,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>45331</v>
       </c>
@@ -9404,7 +9444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>45369</v>
       </c>
@@ -9424,7 +9464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>45412</v>
       </c>
@@ -9450,7 +9490,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>45341</v>
       </c>
@@ -9470,7 +9510,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>45363</v>
       </c>
@@ -9490,7 +9530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>45375</v>
       </c>
@@ -9504,7 +9544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>45376</v>
       </c>
@@ -9518,7 +9558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>45310</v>
       </c>
@@ -9538,7 +9578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>45375</v>
       </c>
@@ -9557,8 +9597,11 @@
       <c r="F441">
         <v>-48</v>
       </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G441" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>45375</v>
       </c>
@@ -9577,8 +9620,11 @@
       <c r="F442">
         <v>-41</v>
       </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G442" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>45375</v>
       </c>
@@ -9597,8 +9643,11 @@
       <c r="F443">
         <v>-34</v>
       </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G443" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>45379</v>
       </c>
@@ -9617,8 +9666,11 @@
       <c r="F444">
         <v>-54</v>
       </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G444" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>45313</v>
       </c>
@@ -9638,7 +9690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>45371</v>
       </c>
@@ -9658,7 +9710,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>45377</v>
       </c>
@@ -9681,7 +9733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>45333</v>
       </c>
@@ -9704,7 +9756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>45397</v>
       </c>
@@ -9727,7 +9779,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>45378</v>
       </c>
@@ -9741,7 +9793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>45310</v>
       </c>
@@ -9761,7 +9813,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>45403</v>
       </c>
@@ -9784,7 +9836,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>45358</v>
       </c>
@@ -9804,7 +9856,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>45369</v>
       </c>
@@ -9824,7 +9876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>45415</v>
       </c>
@@ -9847,7 +9899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>45415</v>
       </c>
@@ -9867,7 +9919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>45415</v>
       </c>
@@ -9887,7 +9939,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>45431</v>
       </c>
@@ -9907,7 +9959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>45305</v>
       </c>
@@ -9930,7 +9982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>45346</v>
       </c>
@@ -9950,7 +10002,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>45353</v>
       </c>
@@ -9970,7 +10022,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>45379</v>
       </c>
@@ -9989,8 +10041,11 @@
       <c r="F462">
         <v>-48</v>
       </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G462" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>45384</v>
       </c>
@@ -10009,8 +10064,11 @@
       <c r="F463">
         <v>-54</v>
       </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G463" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>45384</v>
       </c>
@@ -10029,8 +10087,11 @@
       <c r="F464">
         <v>-48</v>
       </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G464" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>45384</v>
       </c>
@@ -10049,8 +10110,11 @@
       <c r="F465">
         <v>-41</v>
       </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G465" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>45313</v>
       </c>
@@ -10070,7 +10134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>45397</v>
       </c>
@@ -10090,7 +10154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>45397</v>
       </c>
@@ -10110,7 +10174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>45397</v>
       </c>
@@ -10133,7 +10197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>45397</v>
       </c>
@@ -10153,7 +10217,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>45407</v>
       </c>
@@ -10173,7 +10237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <v>45407</v>
       </c>
@@ -10193,7 +10257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>45411</v>
       </c>
@@ -10216,7 +10280,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>45411</v>
       </c>
@@ -10236,7 +10300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>45428</v>
       </c>
@@ -10256,7 +10320,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>45428</v>
       </c>
@@ -10276,7 +10340,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>45355</v>
       </c>
@@ -10296,7 +10360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>45379</v>
       </c>
@@ -10310,7 +10374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <v>45323</v>
       </c>
@@ -10330,7 +10394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="2">
         <v>45323</v>
       </c>
@@ -10350,7 +10414,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>45303</v>
       </c>
@@ -10370,7 +10434,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>45329</v>
       </c>
@@ -10390,7 +10454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <v>45363</v>
       </c>
@@ -10410,7 +10474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>45363</v>
       </c>
@@ -10430,7 +10494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
         <v>45363</v>
       </c>
@@ -10450,7 +10514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <v>45382</v>
       </c>
@@ -10470,7 +10534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>45303</v>
       </c>
@@ -10490,7 +10554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
         <v>45380</v>
       </c>
@@ -10504,7 +10568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <v>45381</v>
       </c>
@@ -10518,7 +10582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <v>45387</v>
       </c>
@@ -10537,8 +10601,11 @@
       <c r="F490">
         <v>-54</v>
       </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G490" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
         <v>45387</v>
       </c>
@@ -10557,8 +10624,11 @@
       <c r="F491">
         <v>-48</v>
       </c>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G491" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <v>45387</v>
       </c>
@@ -10577,8 +10647,11 @@
       <c r="F492">
         <v>-41</v>
       </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G492" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <v>45322</v>
       </c>
@@ -10598,7 +10671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>45336</v>
       </c>
@@ -10618,7 +10691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="2">
         <v>45396</v>
       </c>
@@ -10638,7 +10711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="2">
         <v>45397</v>
       </c>
@@ -10658,7 +10731,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
         <v>45401</v>
       </c>
@@ -10678,7 +10751,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="2">
         <v>45415</v>
       </c>
@@ -10698,7 +10771,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <v>45382</v>
       </c>
@@ -10712,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="2">
         <v>45385</v>
       </c>
@@ -10726,7 +10799,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
         <v>45396</v>
       </c>
@@ -10745,8 +10818,11 @@
       <c r="F501">
         <v>-41</v>
       </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G501" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" s="2">
         <v>45396</v>
       </c>
@@ -10765,8 +10841,11 @@
       <c r="F502">
         <v>-34</v>
       </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G502" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" s="2">
         <v>45396</v>
       </c>
@@ -10785,8 +10864,11 @@
       <c r="F503">
         <v>-27</v>
       </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G503" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="2">
         <v>45431</v>
       </c>
@@ -10806,7 +10888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <v>45439</v>
       </c>
@@ -10829,7 +10911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="2">
         <v>45439</v>
       </c>
@@ -10849,7 +10931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
         <v>45431</v>
       </c>
@@ -10869,7 +10951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="2">
         <v>45431</v>
       </c>
@@ -10889,7 +10971,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="2">
         <v>45389</v>
       </c>
@@ -10903,7 +10985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="2">
         <v>45391</v>
       </c>
@@ -10917,7 +10999,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2">
         <v>45392</v>
       </c>
@@ -10931,7 +11013,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
         <v>45303</v>
       </c>
@@ -10951,7 +11033,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" s="2">
         <v>45381</v>
       </c>
@@ -10970,8 +11052,11 @@
       <c r="F513">
         <v>-54</v>
       </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G513" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" s="2">
         <v>45394</v>
       </c>
@@ -10990,8 +11075,11 @@
       <c r="F514">
         <v>-61</v>
       </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G514" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" s="2">
         <v>45394</v>
       </c>
@@ -11010,8 +11098,11 @@
       <c r="F515">
         <v>-54</v>
       </c>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G515" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" s="2">
         <v>45428</v>
       </c>
@@ -11030,8 +11121,11 @@
       <c r="F516">
         <v>-48</v>
       </c>
-    </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G516" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" s="2">
         <v>45428</v>
       </c>
@@ -11050,8 +11144,11 @@
       <c r="F517">
         <v>-54</v>
       </c>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G517" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
         <v>45439</v>
       </c>
@@ -11071,7 +11168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" s="2">
         <v>45414</v>
       </c>
@@ -11097,7 +11194,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <v>45417</v>
       </c>
@@ -11123,7 +11220,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2">
         <v>45394</v>
       </c>
@@ -11137,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
         <v>45395</v>
       </c>
@@ -11151,7 +11248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="2">
         <v>45399</v>
       </c>
@@ -11165,7 +11262,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" s="2">
         <v>45396</v>
       </c>
@@ -11184,8 +11281,11 @@
       <c r="F524">
         <v>-48</v>
       </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G524" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" s="2">
         <v>45400</v>
       </c>
@@ -11204,8 +11304,11 @@
       <c r="F525">
         <v>-41</v>
       </c>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G525" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" s="2">
         <v>45403</v>
       </c>
@@ -11224,8 +11327,11 @@
       <c r="F526">
         <v>-48</v>
       </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G526" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2">
         <v>45333</v>
       </c>
@@ -11245,7 +11351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
         <v>45307</v>
       </c>
@@ -11265,7 +11371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2">
         <v>45331</v>
       </c>
@@ -11288,7 +11394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2">
         <v>45353</v>
       </c>
@@ -11308,7 +11414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2">
         <v>45391</v>
       </c>
@@ -11328,7 +11434,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2">
         <v>45391</v>
       </c>
@@ -11348,7 +11454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" s="2">
         <v>45365</v>
       </c>
@@ -11367,8 +11473,11 @@
       <c r="F533">
         <v>-54</v>
       </c>
-    </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G533" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" s="2">
         <v>45373</v>
       </c>
@@ -11387,8 +11496,11 @@
       <c r="F534">
         <v>-61</v>
       </c>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G534" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2">
         <v>45363</v>
       </c>
@@ -11408,7 +11520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="2">
         <v>45353</v>
       </c>
@@ -11431,7 +11543,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2">
         <v>45399</v>
       </c>
@@ -11451,7 +11563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="2">
         <v>45375</v>
       </c>
@@ -11471,7 +11583,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" s="2">
         <v>45331</v>
       </c>
@@ -11497,7 +11609,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="2">
         <v>45402</v>
       </c>
@@ -11511,7 +11623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2">
         <v>45403</v>
       </c>
@@ -11525,7 +11637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
         <v>45353</v>
       </c>
@@ -11545,7 +11657,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2">
         <v>45399</v>
       </c>
@@ -11565,7 +11677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
         <v>45385</v>
       </c>
@@ -11591,7 +11703,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" s="2">
         <v>45428</v>
       </c>
@@ -11617,7 +11729,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <v>45396</v>
       </c>
@@ -11640,7 +11752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="2">
         <v>45404</v>
       </c>
@@ -11654,7 +11766,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="2">
         <v>45405</v>
       </c>
@@ -11668,7 +11780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2">
         <v>45396</v>
       </c>
@@ -11688,7 +11800,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" s="2">
         <v>45403</v>
       </c>
@@ -11707,8 +11819,11 @@
       <c r="F550">
         <v>-41</v>
       </c>
-    </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G550" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" s="2">
         <v>45403</v>
       </c>
@@ -11727,8 +11842,11 @@
       <c r="F551">
         <v>-34</v>
       </c>
-    </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G551" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
         <v>45411</v>
       </c>
@@ -11747,8 +11865,11 @@
       <c r="F552">
         <v>-41</v>
       </c>
-    </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G552" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" s="2">
         <v>45411</v>
       </c>
@@ -11767,8 +11888,11 @@
       <c r="F553">
         <v>-34</v>
       </c>
-    </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G553" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" s="2">
         <v>45411</v>
       </c>
@@ -11787,8 +11911,11 @@
       <c r="F554">
         <v>-27</v>
       </c>
-    </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G554" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="2">
         <v>45358</v>
       </c>
@@ -11808,7 +11935,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="2">
         <v>45363</v>
       </c>
@@ -11828,7 +11955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="2">
         <v>45369</v>
       </c>
@@ -11848,7 +11975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="2">
         <v>45408</v>
       </c>
@@ -11862,7 +11989,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="2">
         <v>45410</v>
       </c>
@@ -11876,7 +12003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" s="2">
         <v>45373</v>
       </c>
@@ -11895,8 +12022,11 @@
       <c r="F560">
         <v>-54</v>
       </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G560" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561" s="2">
         <v>45385</v>
       </c>
@@ -11915,8 +12045,11 @@
       <c r="F561">
         <v>-54</v>
       </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G561" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562" s="2">
         <v>45397</v>
       </c>
@@ -11935,8 +12068,11 @@
       <c r="F562">
         <v>-48</v>
       </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G562" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563" s="2">
         <v>45407</v>
       </c>
@@ -11955,8 +12091,11 @@
       <c r="F563">
         <v>-54</v>
       </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G563" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564" s="2">
         <v>45417</v>
       </c>
@@ -11975,8 +12114,11 @@
       <c r="F564">
         <v>-41</v>
       </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G564" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565" s="2">
         <v>45379</v>
       </c>
@@ -11999,7 +12141,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566" s="2">
         <v>45355</v>
       </c>
@@ -12022,7 +12164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="2">
         <v>45379</v>
       </c>
@@ -12042,7 +12184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="2">
         <v>45394</v>
       </c>
@@ -12062,7 +12204,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="2">
         <v>45396</v>
       </c>
@@ -12082,7 +12224,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="2">
         <v>45411</v>
       </c>
@@ -12096,7 +12238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="2">
         <v>45412</v>
       </c>
@@ -12110,7 +12252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="2">
         <v>45413</v>
       </c>
@@ -12124,7 +12266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="2">
         <v>45414</v>
       </c>
@@ -12138,7 +12280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="2">
         <v>45415</v>
       </c>
@@ -12152,7 +12294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="2">
         <v>45415</v>
       </c>
@@ -12166,7 +12308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="2">
         <v>45396</v>
       </c>
@@ -12186,7 +12328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="2">
         <v>45401</v>
       </c>
@@ -12209,7 +12351,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="2">
         <v>45396</v>
       </c>
@@ -12229,7 +12371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A579" s="2">
         <v>45415</v>
       </c>
@@ -12248,8 +12390,11 @@
       <c r="F579">
         <v>-48</v>
       </c>
-    </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G579" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" s="2">
         <v>45415</v>
       </c>
@@ -12268,8 +12413,11 @@
       <c r="F580">
         <v>-41</v>
       </c>
-    </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G580" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="2">
         <v>45375</v>
       </c>
@@ -12289,7 +12437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" s="2">
         <v>45417</v>
       </c>
@@ -12308,8 +12456,11 @@
       <c r="F582">
         <v>-61</v>
       </c>
-    </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G582" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="2">
         <v>45301</v>
       </c>
@@ -12329,7 +12480,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="2">
         <v>45322</v>
       </c>
@@ -12349,7 +12500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="2">
         <v>45385</v>
       </c>
@@ -12369,7 +12520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="2">
         <v>45385</v>
       </c>
@@ -12389,7 +12540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="2">
         <v>45411</v>
       </c>
@@ -12409,7 +12560,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" s="2">
         <v>45434</v>
       </c>
@@ -12432,7 +12583,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" s="2">
         <v>45379</v>
       </c>
@@ -12455,7 +12606,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" s="2">
         <v>45385</v>
       </c>
@@ -12478,7 +12629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="2">
         <v>45401</v>
       </c>
@@ -12498,7 +12649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="2">
         <v>45427</v>
       </c>
@@ -12518,7 +12669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="2">
         <v>45377</v>
       </c>
@@ -12538,7 +12689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="2">
         <v>45377</v>
       </c>
@@ -12558,7 +12709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="2">
         <v>45379</v>
       </c>
@@ -12578,7 +12729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="2">
         <v>45427</v>
       </c>
@@ -12598,7 +12749,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2">
         <v>45416</v>
       </c>
@@ -12612,7 +12763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598" s="2">
         <v>45415</v>
       </c>
@@ -12631,8 +12782,11 @@
       <c r="F598">
         <v>-34</v>
       </c>
-    </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G598" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599" s="2">
         <v>45415</v>
       </c>
@@ -12651,8 +12805,11 @@
       <c r="F599">
         <v>-27</v>
       </c>
-    </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G599" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600" s="2">
         <v>45427</v>
       </c>
@@ -12671,8 +12828,11 @@
       <c r="F600">
         <v>-48</v>
       </c>
-    </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G600" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="2">
         <v>45384</v>
       </c>
@@ -12692,7 +12852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="2">
         <v>45432</v>
       </c>
@@ -12712,7 +12872,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="2">
         <v>45396</v>
       </c>
@@ -12732,7 +12892,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="2">
         <v>45396</v>
       </c>
@@ -12752,7 +12912,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="2">
         <v>45403</v>
       </c>
@@ -12772,7 +12932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="2">
         <v>45403</v>
       </c>
@@ -12792,7 +12952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="2">
         <v>45397</v>
       </c>
@@ -12812,7 +12972,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="2">
         <v>45420</v>
       </c>
@@ -12826,7 +12986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="2">
         <v>45411</v>
       </c>
@@ -12846,7 +13006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610" s="2">
         <v>45417</v>
       </c>
@@ -12869,7 +13029,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611" s="2">
         <v>45434</v>
       </c>
@@ -12892,7 +13052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="2">
         <v>45310</v>
       </c>
@@ -12912,7 +13072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="2">
         <v>45310</v>
       </c>
@@ -12932,7 +13092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="2">
         <v>45428</v>
       </c>
@@ -12952,7 +13112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="2">
         <v>45434</v>
       </c>
@@ -12972,7 +13132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="2">
         <v>45421</v>
       </c>
@@ -12986,7 +13146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617" s="2">
         <v>45427</v>
       </c>
@@ -13005,8 +13165,11 @@
       <c r="F617">
         <v>-41</v>
       </c>
-    </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G617" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618" s="2">
         <v>45432</v>
       </c>
@@ -13025,8 +13188,11 @@
       <c r="F618">
         <v>-48</v>
       </c>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G618" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619" s="2">
         <v>45432</v>
       </c>
@@ -13045,8 +13211,11 @@
       <c r="F619">
         <v>-41</v>
       </c>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G619" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620" s="2">
         <v>45432</v>
       </c>
@@ -13065,8 +13234,11 @@
       <c r="F620">
         <v>-34</v>
       </c>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G620" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" s="2">
         <v>45435</v>
       </c>
@@ -13085,8 +13257,11 @@
       <c r="F621">
         <v>-41</v>
       </c>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G621" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" s="2">
         <v>45435</v>
       </c>
@@ -13105,8 +13280,11 @@
       <c r="F622">
         <v>-34</v>
       </c>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G622" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" s="2">
         <v>45435</v>
       </c>
@@ -13125,8 +13303,11 @@
       <c r="F623">
         <v>-27</v>
       </c>
-    </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G623" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" s="2">
         <v>45435</v>
       </c>
@@ -13145,8 +13326,11 @@
       <c r="F624">
         <v>-20</v>
       </c>
-    </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G624" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" s="2">
         <v>45435</v>
       </c>
@@ -13165,8 +13349,11 @@
       <c r="F625">
         <v>-20</v>
       </c>
-    </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G625" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="2">
         <v>45422</v>
       </c>
@@ -13180,7 +13367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="2">
         <v>45411</v>
       </c>
@@ -13200,7 +13387,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="2">
         <v>45432</v>
       </c>
@@ -13220,7 +13407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="2">
         <v>45427</v>
       </c>
@@ -13240,7 +13427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" s="2">
         <v>45439</v>
       </c>
@@ -13259,8 +13446,11 @@
       <c r="F630">
         <v>-27</v>
       </c>
-    </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G630" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="2">
         <v>45377</v>
       </c>
@@ -13283,7 +13473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="2">
         <v>45346</v>
       </c>
@@ -13303,7 +13493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="2">
         <v>45401</v>
       </c>
@@ -13323,7 +13513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="2">
         <v>45423</v>
       </c>
@@ -13337,7 +13527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="2">
         <v>45424</v>
       </c>
@@ -13352,7 +13542,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H635" xr:uid="{BE32C860-A414-4E17-A13D-0D87E605F720}"/>
+  <autoFilter ref="A1:H635" xr:uid="{BE32C860-A414-4E17-A13D-0D87E605F720}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0"/>
+        <filter val="-20"/>
+        <filter val="-27"/>
+        <filter val="-34"/>
+        <filter val="-41"/>
+        <filter val="-48"/>
+        <filter val="-54"/>
+        <filter val="-61"/>
+        <filter val="-68"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -13364,7 +13568,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13376,7 +13580,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gym_log_Q1_2024 - workout data.xlsx
+++ b/gym_log_Q1_2024 - workout data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dpdhl-my.sharepoint.com/personal/jan_miklosko_dhl_com/Documents/Desktop/Pracovní DHL/SuperUser/DATA/Gym_log_2024 temporary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janmi\Documents\VS Code\Gym_log_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="928" documentId="8_{9BE7484D-AE15-43C3-A35E-CA8213619547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51D1708A-C2B1-4C1D-B6BD-35ADAED88F65}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A9AF36-B3B0-4F9E-AA7E-70A5D18D8768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="0" windowWidth="22095" windowHeight="17550" xr2:uid="{6B4D77A0-3B2B-4DE3-BAB8-9DB7AEC2EDDD}"/>
+    <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="18240" xr2:uid="{6B4D77A0-3B2B-4DE3-BAB8-9DB7AEC2EDDD}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="147">
   <si>
     <t>Muscle group</t>
   </si>
@@ -475,6 +475,12 @@
   <si>
     <t>Gym</t>
   </si>
+  <si>
+    <t>Incline chest press bench</t>
+  </si>
+  <si>
+    <t>Bicep Hammer curl</t>
+  </si>
 </sst>
 </file>
 
@@ -532,9 +538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 –⁠ 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -572,7 +578,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 –⁠ 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -678,7 +684,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 –⁠ 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -820,7 +826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -828,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE32C860-A414-4E17-A13D-0D87E605F720}">
-  <dimension ref="A1:J714"/>
+  <dimension ref="A1:J746"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A709" workbookViewId="0">
+      <selection activeCell="D740" sqref="D740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15853,6 +15859,646 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A715" s="2">
+        <v>45461</v>
+      </c>
+      <c r="B715" t="s">
+        <v>16</v>
+      </c>
+      <c r="C715" t="s">
+        <v>17</v>
+      </c>
+      <c r="D715">
+        <v>2</v>
+      </c>
+      <c r="I715">
+        <v>0.25</v>
+      </c>
+      <c r="J715" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A716" s="2">
+        <v>45461</v>
+      </c>
+      <c r="B716" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A717" s="2">
+        <v>45462</v>
+      </c>
+      <c r="B717" t="s">
+        <v>16</v>
+      </c>
+      <c r="C717" t="s">
+        <v>17</v>
+      </c>
+      <c r="D717">
+        <v>1</v>
+      </c>
+      <c r="I717">
+        <v>0.38</v>
+      </c>
+      <c r="J717" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A718" s="2">
+        <v>45462</v>
+      </c>
+      <c r="B718" t="s">
+        <v>30</v>
+      </c>
+      <c r="C718" t="s">
+        <v>33</v>
+      </c>
+      <c r="D718">
+        <v>1</v>
+      </c>
+      <c r="E718">
+        <v>10</v>
+      </c>
+      <c r="F718">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A719" s="2">
+        <v>45462</v>
+      </c>
+      <c r="B719" t="s">
+        <v>30</v>
+      </c>
+      <c r="C719" t="s">
+        <v>33</v>
+      </c>
+      <c r="D719">
+        <v>1</v>
+      </c>
+      <c r="E719">
+        <v>6</v>
+      </c>
+      <c r="F719">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A720" s="2">
+        <v>45462</v>
+      </c>
+      <c r="B720" t="s">
+        <v>7</v>
+      </c>
+      <c r="C720" t="s">
+        <v>120</v>
+      </c>
+      <c r="D720">
+        <v>4</v>
+      </c>
+      <c r="E720">
+        <v>6</v>
+      </c>
+      <c r="F720">
+        <v>0</v>
+      </c>
+      <c r="G720" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A721" s="2">
+        <v>45462</v>
+      </c>
+      <c r="B721" t="s">
+        <v>5</v>
+      </c>
+      <c r="C721" t="s">
+        <v>145</v>
+      </c>
+      <c r="D721">
+        <v>4</v>
+      </c>
+      <c r="E721">
+        <v>8</v>
+      </c>
+      <c r="F721">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A722" s="2">
+        <v>45463</v>
+      </c>
+      <c r="B722" t="s">
+        <v>16</v>
+      </c>
+      <c r="C722" t="s">
+        <v>17</v>
+      </c>
+      <c r="D722">
+        <v>1</v>
+      </c>
+      <c r="I722">
+        <v>0.5</v>
+      </c>
+      <c r="J722" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A723" s="2">
+        <v>45463</v>
+      </c>
+      <c r="B723" t="s">
+        <v>19</v>
+      </c>
+      <c r="C723" t="s">
+        <v>23</v>
+      </c>
+      <c r="D723">
+        <v>1</v>
+      </c>
+      <c r="E723">
+        <v>10</v>
+      </c>
+      <c r="F723">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A724" s="2">
+        <v>45463</v>
+      </c>
+      <c r="B724" t="s">
+        <v>19</v>
+      </c>
+      <c r="C724" t="s">
+        <v>23</v>
+      </c>
+      <c r="D724">
+        <v>3</v>
+      </c>
+      <c r="E724">
+        <v>10</v>
+      </c>
+      <c r="F724">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A725" s="2">
+        <v>45463</v>
+      </c>
+      <c r="B725" t="s">
+        <v>19</v>
+      </c>
+      <c r="C725" t="s">
+        <v>21</v>
+      </c>
+      <c r="D725">
+        <v>4</v>
+      </c>
+      <c r="E725">
+        <v>8</v>
+      </c>
+      <c r="F725">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A726" s="2">
+        <v>45463</v>
+      </c>
+      <c r="B726" t="s">
+        <v>19</v>
+      </c>
+      <c r="C726" t="s">
+        <v>76</v>
+      </c>
+      <c r="D726">
+        <v>4</v>
+      </c>
+      <c r="F726">
+        <v>0</v>
+      </c>
+      <c r="G726" t="s">
+        <v>54</v>
+      </c>
+      <c r="H726" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A727" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B727" t="s">
+        <v>16</v>
+      </c>
+      <c r="C727" t="s">
+        <v>17</v>
+      </c>
+      <c r="D727">
+        <v>0.5</v>
+      </c>
+      <c r="I727">
+        <v>0.5</v>
+      </c>
+      <c r="J727" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A728" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B728" t="s">
+        <v>5</v>
+      </c>
+      <c r="C728" t="s">
+        <v>46</v>
+      </c>
+      <c r="D728">
+        <v>4</v>
+      </c>
+      <c r="E728">
+        <v>12</v>
+      </c>
+      <c r="F728">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A729" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B729" t="s">
+        <v>5</v>
+      </c>
+      <c r="C729" t="s">
+        <v>6</v>
+      </c>
+      <c r="D729">
+        <v>4</v>
+      </c>
+      <c r="E729">
+        <v>11</v>
+      </c>
+      <c r="F729">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A730" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B730" t="s">
+        <v>7</v>
+      </c>
+      <c r="C730" t="s">
+        <v>120</v>
+      </c>
+      <c r="D730">
+        <v>1</v>
+      </c>
+      <c r="E730">
+        <v>5</v>
+      </c>
+      <c r="F730">
+        <v>0</v>
+      </c>
+      <c r="G730" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A731" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B731" t="s">
+        <v>7</v>
+      </c>
+      <c r="C731" t="s">
+        <v>120</v>
+      </c>
+      <c r="D731">
+        <v>1</v>
+      </c>
+      <c r="E731">
+        <v>5</v>
+      </c>
+      <c r="F731">
+        <v>-20</v>
+      </c>
+      <c r="G731" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A732" s="2">
+        <v>45467</v>
+      </c>
+      <c r="B732" t="s">
+        <v>7</v>
+      </c>
+      <c r="C732" t="s">
+        <v>120</v>
+      </c>
+      <c r="D732">
+        <v>2</v>
+      </c>
+      <c r="E732">
+        <v>6</v>
+      </c>
+      <c r="F732">
+        <v>-27</v>
+      </c>
+      <c r="G732" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A733" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B733" t="s">
+        <v>16</v>
+      </c>
+      <c r="C733" t="s">
+        <v>17</v>
+      </c>
+      <c r="D733">
+        <v>1</v>
+      </c>
+      <c r="I733">
+        <v>0.5</v>
+      </c>
+      <c r="J733" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A734" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B734" t="s">
+        <v>10</v>
+      </c>
+      <c r="C734" t="s">
+        <v>66</v>
+      </c>
+      <c r="D734">
+        <v>1</v>
+      </c>
+      <c r="E734">
+        <v>12</v>
+      </c>
+      <c r="F734">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A735" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B735" t="s">
+        <v>10</v>
+      </c>
+      <c r="C735" t="s">
+        <v>66</v>
+      </c>
+      <c r="D735">
+        <v>1</v>
+      </c>
+      <c r="E735">
+        <v>12</v>
+      </c>
+      <c r="F735">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A736" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B736" t="s">
+        <v>10</v>
+      </c>
+      <c r="C736" t="s">
+        <v>66</v>
+      </c>
+      <c r="D736">
+        <v>2</v>
+      </c>
+      <c r="E736">
+        <v>8</v>
+      </c>
+      <c r="F736">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A737" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B737" t="s">
+        <v>7</v>
+      </c>
+      <c r="C737" t="s">
+        <v>8</v>
+      </c>
+      <c r="D737">
+        <v>4</v>
+      </c>
+      <c r="E737">
+        <v>14</v>
+      </c>
+      <c r="F737">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A738" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B738" t="s">
+        <v>7</v>
+      </c>
+      <c r="C738" t="s">
+        <v>107</v>
+      </c>
+      <c r="D738">
+        <v>2</v>
+      </c>
+      <c r="E738">
+        <v>10</v>
+      </c>
+      <c r="F738">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A739" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B739" t="s">
+        <v>16</v>
+      </c>
+      <c r="C739" t="s">
+        <v>17</v>
+      </c>
+      <c r="D739">
+        <v>0.5</v>
+      </c>
+      <c r="I739">
+        <v>0.75</v>
+      </c>
+      <c r="J739" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A740" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B740" t="s">
+        <v>30</v>
+      </c>
+      <c r="C740" t="s">
+        <v>146</v>
+      </c>
+      <c r="D740">
+        <v>1</v>
+      </c>
+      <c r="E740">
+        <v>10</v>
+      </c>
+      <c r="F740">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A741" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B741" t="s">
+        <v>30</v>
+      </c>
+      <c r="C741" t="s">
+        <v>146</v>
+      </c>
+      <c r="D741">
+        <v>1</v>
+      </c>
+      <c r="E741">
+        <v>9</v>
+      </c>
+      <c r="F741">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A742" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B742" t="s">
+        <v>30</v>
+      </c>
+      <c r="C742" t="s">
+        <v>146</v>
+      </c>
+      <c r="D742">
+        <v>2</v>
+      </c>
+      <c r="E742">
+        <v>6</v>
+      </c>
+      <c r="F742">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A743" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B743" t="s">
+        <v>7</v>
+      </c>
+      <c r="C743" t="s">
+        <v>120</v>
+      </c>
+      <c r="D743">
+        <v>4</v>
+      </c>
+      <c r="E743">
+        <v>8</v>
+      </c>
+      <c r="F743">
+        <v>0</v>
+      </c>
+      <c r="G743" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A744" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B744" t="s">
+        <v>5</v>
+      </c>
+      <c r="C744" t="s">
+        <v>86</v>
+      </c>
+      <c r="D744">
+        <v>2</v>
+      </c>
+      <c r="E744">
+        <v>8</v>
+      </c>
+      <c r="F744">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A745" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B745" t="s">
+        <v>5</v>
+      </c>
+      <c r="C745" t="s">
+        <v>11</v>
+      </c>
+      <c r="D745">
+        <v>2</v>
+      </c>
+      <c r="E745">
+        <v>8</v>
+      </c>
+      <c r="F745">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A746" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B746" t="s">
+        <v>16</v>
+      </c>
+      <c r="C746" t="s">
+        <v>84</v>
+      </c>
+      <c r="D746">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H714" xr:uid="{BE32C860-A414-4E17-A13D-0D87E605F720}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H635">
